--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>733453.0556701274</v>
+        <v>730751.407767592</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663203</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666367</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>68.11693918766126</v>
       </c>
       <c r="T2" t="n">
-        <v>74.99298492937314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>92.73964154763118</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409146</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846313</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>43.08554925202693</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709376</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734114</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>185.1421734110665</v>
       </c>
       <c r="H5" t="n">
-        <v>284.8668819046809</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
@@ -1032,7 +1032,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.24051252435269</v>
+        <v>134.3807354218354</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>31.0007482193069</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.8754739680284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>141.2473539394078</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>174.9755066858595</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.83088445038201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151408</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.96405273198466</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>127.7368308808623</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436608</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
-        <v>35.5653603643399</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.3450364528296</v>
+        <v>30.34503645282972</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
         <v>192.6772763323794</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.703488463267484</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76.13112861274047</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332423</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313611</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>338.7429847121481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6000736915391</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615218</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530795</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>59.96658948823109</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905246</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793459</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.800047274035</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>134.5665975534138</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>93.07916359105508</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.9393756113379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503962</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>105.650786789956</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.155784569982</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>34.0049084329458</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>95.12712756823966</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>132.1341815222715</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>40.15381658332804</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>100.988480008087</v>
+        <v>99.9742741983388</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189091</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.651966565607</v>
+        <v>224.59746731481</v>
       </c>
       <c r="C2" t="n">
-        <v>217.651966565607</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>217.651966565607</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>217.651966565607</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.8121315905899</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644764</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426227</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>672.242026426227</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="T2" t="n">
-        <v>596.4915365985773</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="U2" t="n">
-        <v>596.4915365985773</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="V2" t="n">
-        <v>596.4915365985773</v>
+        <v>224.59746731481</v>
       </c>
       <c r="W2" t="n">
-        <v>407.0717515820921</v>
+        <v>224.59746731481</v>
       </c>
       <c r="X2" t="n">
-        <v>407.0717515820921</v>
+        <v>224.59746731481</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.651966565607</v>
+        <v>224.59746731481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>482.1339753607966</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>482.1339753607966</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>482.1339753607966</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>322.8965203553411</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264295</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810258</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810258</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810258</v>
+        <v>487.5180226099429</v>
       </c>
       <c r="V3" t="n">
-        <v>482.1339753607966</v>
+        <v>298.0982375934582</v>
       </c>
       <c r="W3" t="n">
-        <v>482.1339753607966</v>
+        <v>298.0982375934582</v>
       </c>
       <c r="X3" t="n">
-        <v>482.1339753607966</v>
+        <v>108.6784525769735</v>
       </c>
       <c r="Y3" t="n">
-        <v>482.1339753607966</v>
+        <v>108.6784525769735</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623019</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170745</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396374</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910476</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1237.083609737186</v>
+        <v>1396.118167241171</v>
       </c>
       <c r="C5" t="n">
-        <v>1237.083609737186</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="D5" t="n">
-        <v>1237.083609737186</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="E5" t="n">
-        <v>1237.083609737186</v>
+        <v>641.3673977025153</v>
       </c>
       <c r="F5" t="n">
-        <v>826.0977049475787</v>
+        <v>230.3814929129077</v>
       </c>
       <c r="G5" t="n">
-        <v>410.0666596509859</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4568,16 +4568,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.285829056568</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1627.222941712998</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>1627.222941712998</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>1627.222941712998</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1237.083609737186</v>
+        <v>1782.718007305293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>804.6501442579348</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="C6" t="n">
-        <v>630.1971149768078</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="D6" t="n">
-        <v>481.2627053155565</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E6" t="n">
-        <v>322.025250310101</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F6" t="n">
-        <v>175.490692336986</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4671,25 +4671,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1539.52797744664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1311.426387579904</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1311.426387579904</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>1057.189030851703</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>849.3375306461699</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>804.6501442579348</v>
+        <v>339.4826453284327</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.2184730483931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>191.2822901204862</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>191.2822901204862</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
         <v>43.36919653809306</v>
@@ -4726,7 +4726,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
@@ -4747,28 +4747,28 @@
         <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>466.1525394612431</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>360.2184730483931</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>637.0747326798567</v>
+        <v>867.866396052641</v>
       </c>
       <c r="C8" t="n">
-        <v>637.0747326798567</v>
+        <v>498.9038791122292</v>
       </c>
       <c r="D8" t="n">
-        <v>637.0747326798567</v>
+        <v>140.6381805054787</v>
       </c>
       <c r="E8" t="n">
-        <v>637.0747326798567</v>
+        <v>140.6381805054787</v>
       </c>
       <c r="F8" t="n">
-        <v>460.3317966335339</v>
+        <v>133.6926797562753</v>
       </c>
       <c r="G8" t="n">
-        <v>44.3410042594106</v>
+        <v>121.7422914225561</v>
       </c>
       <c r="H8" t="n">
-        <v>44.3410042594106</v>
+        <v>121.7422914225561</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3410042594106</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420296</v>
+        <v>156.8280559420291</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002238</v>
+        <v>376.1555054002229</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707932</v>
+        <v>685.1523625707916</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937549</v>
+        <v>1060.640340937547</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733707</v>
+        <v>1446.817915733704</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659508</v>
+        <v>1798.139187659505</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284333</v>
+        <v>2063.482764284329</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228515</v>
+        <v>2214.571993228511</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.05021297053</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.05021297053</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290556</v>
+        <v>2007.052422290551</v>
       </c>
       <c r="U8" t="n">
-        <v>1753.448478186862</v>
+        <v>1753.448478186858</v>
       </c>
       <c r="V8" t="n">
-        <v>1753.448478186862</v>
+        <v>1753.448478186858</v>
       </c>
       <c r="W8" t="n">
-        <v>1400.679822916748</v>
+        <v>1400.679822916743</v>
       </c>
       <c r="X8" t="n">
-        <v>1027.214064655668</v>
+        <v>1400.679822916743</v>
       </c>
       <c r="Y8" t="n">
-        <v>637.0747326798567</v>
+        <v>1010.540490940932</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441.3945319629278</v>
+        <v>302.8299157359274</v>
       </c>
       <c r="C9" t="n">
-        <v>441.3945319629278</v>
+        <v>298.825822067256</v>
       </c>
       <c r="D9" t="n">
-        <v>441.3945319629278</v>
+        <v>298.825822067256</v>
       </c>
       <c r="E9" t="n">
-        <v>441.3945319629278</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3674300630669</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904268</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803676</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="I9" t="n">
-        <v>44.3410042594106</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113502</v>
+        <v>92.51967467113474</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154161</v>
+        <v>253.0195209154154</v>
       </c>
       <c r="L9" t="n">
-        <v>515.153912257254</v>
+        <v>515.153912257253</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449733</v>
+        <v>840.4092510449718</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738685</v>
+        <v>1188.681775738683</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074213</v>
+        <v>1485.06330007421</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566942</v>
+        <v>1703.60253656694</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.77103225764</v>
+        <v>1799.771032257637</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285085</v>
+        <v>1769.119480285081</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285085</v>
+        <v>1630.554864058084</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838237</v>
+        <v>1435.931352611236</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.395795893359</v>
+        <v>1207.831179666358</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.243687661616</v>
+        <v>972.6790714346157</v>
       </c>
       <c r="W9" t="n">
-        <v>857.0063309334146</v>
+        <v>718.4417147064141</v>
       </c>
       <c r="X9" t="n">
-        <v>649.1548307278817</v>
+        <v>510.5902145008813</v>
       </c>
       <c r="Y9" t="n">
-        <v>441.3945319629278</v>
+        <v>302.8299157359274</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.3022558513952</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="C10" t="n">
-        <v>138.3022558513952</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="D10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="E10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="G10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="H10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="J10" t="n">
-        <v>44.3410042594106</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016735</v>
+        <v>95.74470838016705</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810359</v>
+        <v>191.4295496810354</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422656</v>
+        <v>295.5740818422649</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091243</v>
+        <v>405.0998157091233</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712723</v>
+        <v>485.951469271271</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139731</v>
+        <v>536.0720553139716</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139731</v>
+        <v>536.0720553139716</v>
       </c>
       <c r="R10" t="n">
-        <v>427.7194258883558</v>
+        <v>536.0720553139716</v>
       </c>
       <c r="S10" t="n">
-        <v>427.7194258883558</v>
+        <v>337.2072378461984</v>
       </c>
       <c r="T10" t="n">
-        <v>427.7194258883558</v>
+        <v>337.2072378461984</v>
       </c>
       <c r="U10" t="n">
-        <v>427.7194258883558</v>
+        <v>48.08190169705443</v>
       </c>
       <c r="V10" t="n">
-        <v>427.7194258883558</v>
+        <v>48.08190169705443</v>
       </c>
       <c r="W10" t="n">
-        <v>138.3022558513952</v>
+        <v>48.08190169705443</v>
       </c>
       <c r="X10" t="n">
-        <v>138.3022558513952</v>
+        <v>48.08190169705443</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.3022558513952</v>
+        <v>48.08190169705443</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133569</v>
+        <v>1485.490329133575</v>
       </c>
       <c r="C11" t="n">
-        <v>1143.325698111197</v>
+        <v>1116.527812193164</v>
       </c>
       <c r="D11" t="n">
-        <v>785.0599995044468</v>
+        <v>1116.527812193164</v>
       </c>
       <c r="E11" t="n">
-        <v>785.0599995044468</v>
+        <v>805.8206670501952</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592067</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656953</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625332</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087834</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484046</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.9885135353</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.749829464064</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345374</v>
+        <v>3776.999350345381</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926739</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048267</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704696</v>
+        <v>2988.463914704703</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434582</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173502</v>
+        <v>2262.229501173509</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197691</v>
+        <v>1872.090169197697</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870411</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046651</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626164</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019144</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720354</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052876</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.180957052876</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1063.859678641187</v>
+        <v>394.3869424262209</v>
       </c>
       <c r="C13" t="n">
-        <v>894.9234957132797</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>744.806856300944</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>596.8937627185508</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="F13" t="n">
-        <v>450.0038152206405</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="G13" t="n">
-        <v>282.5058320318287</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="H13" t="n">
-        <v>138.1099785302955</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925582</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925582</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>2056.743466925582</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>2056.743466925582</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1802.058978719695</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1512.641808682734</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>1284.652257784717</v>
+        <v>796.8279863999907</v>
       </c>
       <c r="Y13" t="n">
-        <v>1063.859678641187</v>
+        <v>576.0354072564605</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811715</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851667</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572598</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449242</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>229.7425191625312</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>229.7425191625312</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311992</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032923</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909565</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085635</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8360202106533</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614389</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782947</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6491,22 +6491,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876668</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782934</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.741944003832</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797721</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614366</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179065</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.448509608146</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2246.448509608146</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.538088945958</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180511</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>449.4852666057153</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>301.5721730233222</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>301.5721730233222</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>134.3760737382022</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761977</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4567403631473</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D40" t="n">
-        <v>632.3401009508116</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E40" t="n">
-        <v>484.4270073684185</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F40" t="n">
-        <v>337.5370598705081</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597623</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474265</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650334</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650334</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400713</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400713</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>26.52990705885946</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>74.33029638072264</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184569</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>30.2869344110427</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811026</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459288</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>30.95754073885505</v>
+        <v>165.5241382922721</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>72.44497470121377</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.89260457059945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823165</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>75.37549921168858</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>252.5180899036452</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.11969353038818</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>48.89210447937313</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1408962628959</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>64.53565828418189</v>
+        <v>65.54986409393004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6085800303779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659086</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912060.4793964308</v>
+        <v>912060.4793964315</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1003393.239780554</v>
+        <v>1003393.239780553</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1003393.239780554</v>
+        <v>1003393.239780553</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787489</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440577</v>
+        <v>384609.3532440582</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.964837253</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="L2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="M2" t="n">
         <v>423751.9648372531</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372531</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861771</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264234</v>
+        <v>12262.85603264123</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674493</v>
+        <v>395943.9567674519</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704299</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487762</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949708</v>
+        <v>3074.447349949507</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931117</v>
+        <v>103409.2608931124</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202388</v>
+        <v>49839.57413202336</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.882760742</v>
+        <v>170817.8827607423</v>
       </c>
       <c r="E4" t="n">
         <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687968</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.6400068797</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404165</v>
+        <v>86153.75444404157</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673856</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-495832.3385878404</v>
+        <v>-495832.3385878401</v>
       </c>
       <c r="C6" t="n">
-        <v>-220865.3870521981</v>
+        <v>-220865.3870521987</v>
       </c>
       <c r="D6" t="n">
-        <v>161812.4359413226</v>
+        <v>161812.4359413233</v>
       </c>
       <c r="E6" t="n">
-        <v>-111803.3100380103</v>
+        <v>-112024.4413519873</v>
       </c>
       <c r="F6" t="n">
-        <v>117884.5262360366</v>
+        <v>117849.7883106028</v>
       </c>
       <c r="G6" t="n">
-        <v>307192.7950064666</v>
+        <v>307158.0570810307</v>
       </c>
       <c r="H6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810306</v>
       </c>
       <c r="I6" t="n">
-        <v>307192.7950064666</v>
+        <v>307158.0570810305</v>
       </c>
       <c r="J6" t="n">
-        <v>258127.8502779216</v>
+        <v>258093.112352486</v>
       </c>
       <c r="K6" t="n">
-        <v>215932.8381415887</v>
+        <v>215898.1002161527</v>
       </c>
       <c r="L6" t="n">
-        <v>304118.3476565166</v>
+        <v>304083.6097310811</v>
       </c>
       <c r="M6" t="n">
-        <v>203783.5341133548</v>
+        <v>203748.7961879182</v>
       </c>
       <c r="N6" t="n">
-        <v>257353.2208744424</v>
+        <v>257318.4829490072</v>
       </c>
       <c r="O6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810304</v>
       </c>
       <c r="P6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810306</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.623449857321</v>
+        <v>863.6234498573201</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426325</v>
+        <v>554.2625532426314</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490083</v>
+        <v>969.22082394901</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247791</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319636896</v>
+        <v>9.912785319635971</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576287</v>
+        <v>338.617787357631</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.589369559843</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646921</v>
+        <v>12.14759651646818</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063758</v>
+        <v>414.9582707063786</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506401</v>
+        <v>203.4874641506382</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598428</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646921</v>
+        <v>12.14759651646841</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063758</v>
+        <v>414.9582707063786</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506403</v>
+        <v>203.4874641506382</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.589369559843</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646921</v>
+        <v>12.14759651646818</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063758</v>
+        <v>414.9582707063786</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506401</v>
+        <v>203.4874641506382</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753911</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>90.65887400239184</v>
       </c>
       <c r="T2" t="n">
-        <v>138.4508961268336</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510927</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897333</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>73.79354210223616</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,22 +27464,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377105</v>
       </c>
       <c r="V3" t="n">
-        <v>189.7150378973983</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825411</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425605</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.7285614325603</v>
       </c>
       <c r="H5" t="n">
-        <v>19.45992285150214</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.4421832529517</v>
+        <v>71.30196035546899</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>77.07210304633169</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.70917938406643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>241.4864877240728</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.900539055852</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151394</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>168.7444462563311</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>17.33238151252161</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1284917186698</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>72.48434440547189</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.89051046332435</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099037</v>
+        <v>21.09786070099051</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-3.266293902015604e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.304053244491418e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753047</v>
+        <v>3.471853064753043</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940215</v>
+        <v>35.55611519940211</v>
       </c>
       <c r="I8" t="n">
-        <v>133.848615278892</v>
+        <v>133.8486152788918</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545842</v>
+        <v>294.6691890545839</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855807</v>
+        <v>441.6327292855802</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160168</v>
+        <v>547.8844525160163</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563189</v>
+        <v>609.6270194563182</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765485</v>
+        <v>619.4914219765478</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639104</v>
+        <v>584.9681830639097</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278194</v>
+        <v>499.2568105278189</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463508</v>
+        <v>374.9210726463504</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787937</v>
+        <v>218.0887900787935</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306013</v>
+        <v>79.11485171306005</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095647</v>
+        <v>15.19803679095645</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802437</v>
+        <v>0.2777482451802434</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296879</v>
+        <v>1.857605156296877</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213039</v>
+        <v>17.94055506213037</v>
       </c>
       <c r="I9" t="n">
-        <v>63.9570196356601</v>
+        <v>63.95701963566004</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148732</v>
+        <v>175.502950314873</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867641</v>
+        <v>299.9624957867637</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564781</v>
+        <v>403.3365932564777</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722399</v>
+        <v>470.6747801722394</v>
       </c>
       <c r="N9" t="n">
-        <v>483.13214106688</v>
+        <v>483.1321410668795</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510386</v>
+        <v>441.9715215510382</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423401</v>
+        <v>354.7211109423397</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230894</v>
+        <v>237.1216687230891</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111343</v>
+        <v>115.3344675111342</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911087</v>
+        <v>34.50420103911083</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442243</v>
+        <v>7.487452362442235</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458474</v>
+        <v>0.1222108655458472</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037792</v>
+        <v>1.55735376203779</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066329</v>
+        <v>13.84629072066327</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291834</v>
+        <v>46.83387495291829</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760719</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258452</v>
+        <v>180.936191625845</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306005</v>
+        <v>231.5360311306002</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801604</v>
+        <v>244.1222810801601</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762015</v>
+        <v>238.3175988762013</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833054</v>
+        <v>220.1248753833052</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377343</v>
+        <v>188.3548586377341</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284555</v>
+        <v>130.4071409284553</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580834</v>
+        <v>70.02428824580826</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387678</v>
+        <v>27.14042874387675</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343291</v>
+        <v>6.654147892343284</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842511</v>
+        <v>0.08494656883842502</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869141</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639235</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203914</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975122</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544651</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954554</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180162</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956799</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620353</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825966</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495312</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469204</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598378</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747744</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821475</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340501</v>
+        <v>267.5398078833307</v>
       </c>
       <c r="O12" t="n">
-        <v>615.263965992447</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.7767623746064</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.1969510279845</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811703</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493537</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377478</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>483.3274636075166</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6713445157999</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646089</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061166</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520837</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400637</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278979</v>
+        <v>113.6232845278976</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406001</v>
+        <v>221.5428782405997</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460296</v>
+        <v>312.118037546029</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290462</v>
+        <v>379.2807862290455</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799576</v>
+        <v>390.0783583799569</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422236</v>
+        <v>354.8699716422229</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725499</v>
+        <v>268.0238147725494</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719013</v>
+        <v>152.6153827719009</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661626</v>
+        <v>2.503252264661398</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820648</v>
+        <v>48.66532364820628</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124051</v>
+        <v>162.1210568124047</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766039</v>
+        <v>264.7822134766035</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502216</v>
+        <v>328.5407462502211</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835467</v>
+        <v>351.7904289835462</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065942</v>
+        <v>299.3752771065937</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280098</v>
+        <v>220.7467035280094</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706787</v>
+        <v>97.13989463706761</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530985</v>
+        <v>51.92293345530965</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936218</v>
+        <v>96.65135484936195</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325553</v>
+        <v>105.1964971325551</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109683</v>
+        <v>110.6320544109681</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146265</v>
+        <v>81.66833693146239</v>
       </c>
       <c r="P10" t="n">
-        <v>50.6268545885867</v>
+        <v>50.6268545885865</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937051</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525317</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844779</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681827</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739931</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067658</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081471</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553057</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854788</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949002</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507168</v>
+        <v>136.1980957999974</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480025</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.7949882885848</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186267</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388467</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776303</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295234</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>340.7312191630721</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998989</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295106</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>122.3296324324666</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
